--- a/Daisy-xls/ResearchPages/English/research-aya.xlsx
+++ b/Daisy-xls/ResearchPages/English/research-aya.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -123,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,12 +146,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,6 +194,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -486,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -500,7 +518,7 @@
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -521,11 +539,13 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="10">
+        <v>824184</v>
+      </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
@@ -539,11 +559,13 @@
         <v>41086</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10">
+        <v>826388</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -557,11 +579,13 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="10">
+        <v>823316</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
